--- a/Unity/Assets/Config/Excel/AbilityConfig/FunctionMenuConfig/FunctionMenuCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/FunctionMenuConfig/FunctionMenuCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\FunctionMenuConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\FunctionMenuConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE5F6B2-417C-4C84-824B-B2031943C1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6563DB-CE0F-480C-A616-2F90F702BCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -260,12 +249,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FunctionMenu_ARPVE</t>
-  </si>
-  <si>
-    <t>FunctionMenu_AREndlessChallenge</t>
-  </si>
-  <si>
     <t>FunctionMenu_ARPVP</t>
   </si>
   <si>
@@ -290,9 +273,6 @@
     <t>FunctionMenu_BattleDeckOperate</t>
   </si>
   <si>
-    <t>FunctionMenu_DiscordOperate</t>
-  </si>
-  <si>
     <t>is_open_soon</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -305,10 +285,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ResIcon_Infinite</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ResIcon_PVP</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -321,11 +297,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ResIcon_Discord</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenuConditionIndexWhenARPVE;4</t>
+    <t>FunctionMenuConditionBattleNumAREndlessChallenge;3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionTutorialFirstFinished</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenu_Challenge</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -333,16 +313,37 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FunctionMenuConditionIndexWhenARPVE;6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenuConditionBattleNumAREndlessChallenge;3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenuConditionBattleNumARAny;8</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <r>
+      <t>FunctionMenu_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Load</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战模式+排行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>load教学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时用于多人引导</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenu_Invite</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -797,22 +798,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="J16:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="7.33203125" customWidth="1"/>
+    <col min="1" max="3" width="7.375" customWidth="1"/>
     <col min="4" max="4" width="52" customWidth="1"/>
-    <col min="7" max="7" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1"/>
-    <col min="12" max="12" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.625" customWidth="1"/>
+    <col min="12" max="12" width="32.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +831,7 @@
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>38</v>
@@ -842,7 +843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +859,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -876,7 +877,7 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>39</v>
@@ -888,7 +889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -904,7 +905,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,7 +923,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>40</v>
@@ -934,7 +935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
@@ -957,20 +958,20 @@
         <v>Text_Key_Desc_FunctionMenu_ARPVE</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>41</v>
+      <c r="J6" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
@@ -993,22 +994,20 @@
         <v>Text_Key_Desc_FunctionMenu_AREndlessChallenge</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1037,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1079,10 +1078,10 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1115,10 +1114,10 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1147,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1189,10 +1188,10 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1225,10 +1224,10 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1261,10 +1260,10 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1293,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1325,120 +1324,118 @@
         <v>Text_Key_Desc_FunctionMenu_DiscordOperate</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="K18" s="3"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D44" s="3"/>
       <c r="G44" s="3"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/FunctionMenuConfig/FunctionMenuCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/FunctionMenuConfig/FunctionMenuCfg.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\FunctionMenuConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\FunctionMenuConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6563DB-CE0F-480C-A616-2F90F702BCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0261DE1-B38F-448E-91FA-92667D372DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -261,9 +272,6 @@
     <t>FunctionMenu_BattleDeck</t>
   </si>
   <si>
-    <t>FunctionMenu_Rank</t>
-  </si>
-  <si>
     <t>FunctionMenu_Tutorial</t>
   </si>
   <si>
@@ -286,14 +294,6 @@
   </si>
   <si>
     <t>ResIcon_PVP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResIcon_Towers</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResIcon_Team</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -305,44 +305,59 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>FunctionMenu_Challenge</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenuConditionIndexWhenARPVE;1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FunctionMenu_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Load</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战模式+排行</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>load教学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时用于多人引导</t>
+    <t>FunctionMenu_AREndlessChallenge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionIndexWhenARPVE;3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGuideWhenBattleEnd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在战斗结束时强制退出房间并指引会首页</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FunctionMenu_Invite</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人教学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级(越小越低)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂用于load引导</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季+养成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战、赛季关卡介绍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenu_Load</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenu_Season</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +415,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -490,7 +513,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -504,6 +527,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -796,24 +822,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="J16:L16"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="52" customWidth="1"/>
-    <col min="7" max="7" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.625" customWidth="1"/>
-    <col min="12" max="12" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1"/>
+    <col min="12" max="13" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,16 +848,16 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>38</v>
@@ -842,24 +868,32 @@
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -868,16 +902,16 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>39</v>
@@ -888,8 +922,14 @@
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -898,14 +938,16 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,7 +965,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>40</v>
@@ -934,8 +976,14 @@
       <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
@@ -958,20 +1006,26 @@
         <v>Text_Key_Desc_FunctionMenu_ARPVE</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>60</v>
+      <c r="J6" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
@@ -994,20 +1048,26 @@
         <v>Text_Key_Desc_FunctionMenu_AREndlessChallenge</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>60</v>
+      <c r="J7" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1036,16 +1096,22 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1080,8 +1146,14 @@
       <c r="L9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1161,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10" si="3">B10&amp;"_"&amp;C10</f>
+        <f t="shared" si="2"/>
         <v>FunctionMenu_BackPack</v>
       </c>
       <c r="E10" s="3" t="str">
@@ -1100,7 +1172,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" ref="G10" si="4">"Text_Key_Desc_"&amp;D10</f>
+        <f t="shared" si="1"/>
         <v>Text_Key_Desc_FunctionMenu_BackPack</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1116,8 +1188,14 @@
       <c r="L10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1148,14 +1226,17 @@
       <c r="J11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1178,20 +1259,26 @@
         <v>Text_Key_Desc_FunctionMenu_Rank</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>41</v>
+      <c r="J12" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="L12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1224,10 +1311,16 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1260,10 +1353,16 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1292,16 +1391,20 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K15" s="3"/>
       <c r="L15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1324,118 +1427,124 @@
         <v>Text_Key_Desc_FunctionMenu_DiscordOperate</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>60</v>
+      <c r="J16" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="K18" s="3"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
       <c r="G44" s="3"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/FunctionMenuConfig/FunctionMenuCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/FunctionMenuConfig/FunctionMenuCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\FunctionMenuConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\FunctionMenuConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0261DE1-B38F-448E-91FA-92667D372DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2B69A9-A075-4B1A-B6A6-FDA163C10911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -297,67 +286,70 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FunctionMenuConditionBattleNumAREndlessChallenge;3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FunctionMenuConditionTutorialFirstFinished</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>isGuideWhenBattleEnd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在战斗结束时强制退出房间并指引会首页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenu_Invite</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人教学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级(越小越低)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂用于load引导</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季+养成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenu_Load</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenu_Season</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionIndexWhenARPVE;6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionIndexWhenARPVE;3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限模式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionTutorialFirstFinished</t>
+  </si>
+  <si>
     <t>FunctionMenu_AREndlessChallenge</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenuConditionIndexWhenARPVE;3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGuideWhenBattleEnd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否在战斗结束时强制退出房间并指引会首页</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenu_Invite</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多人教学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级(越小越低)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂用于load引导</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛季+养成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战、赛季关卡介绍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenu_Load</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenu_Season</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +505,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -525,9 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -826,20 +815,20 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="46.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="50" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1"/>
-    <col min="12" max="13" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.625" customWidth="1"/>
+    <col min="12" max="13" width="32.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,14 +837,14 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="7" t="s">
         <v>52</v>
       </c>
@@ -869,23 +858,23 @@
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="1"/>
@@ -893,7 +882,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -902,14 +891,14 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>53</v>
       </c>
@@ -926,10 +915,10 @@
         <v>53</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -938,8 +927,8 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="2"/>
@@ -947,7 +936,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -977,13 +966,13 @@
         <v>18</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1006,17 +995,17 @@
         <v>Text_Key_Desc_FunctionMenu_ARPVE</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>57</v>
+      <c r="J6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -1025,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1048,26 +1037,26 @@
         <v>Text_Key_Desc_FunctionMenu_AREndlessChallenge</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1095,8 +1084,8 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>56</v>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>55</v>
@@ -1111,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1153,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1236,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1259,26 +1248,26 @@
         <v>Text_Key_Desc_FunctionMenu_Rank</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>57</v>
+      <c r="J12" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1320,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1362,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1391,20 +1380,20 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" t="s">
         <v>51</v>
       </c>
       <c r="M15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1427,124 +1416,124 @@
         <v>Text_Key_Desc_FunctionMenu_DiscordOperate</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>57</v>
+      <c r="J16" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="K18" s="3"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D44" s="3"/>
       <c r="G44" s="3"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/FunctionMenuConfig/FunctionMenuCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/FunctionMenuConfig/FunctionMenuCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\FunctionMenuConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2B69A9-A075-4B1A-B6A6-FDA163C10911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2A2382-C0F5-423D-AFAE-BBE778EAA615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FunctionMenuConditionIndexWhenARPVE;6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FunctionMenuConditionIndexWhenARPVE;3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -350,6 +346,10 @@
   </si>
   <si>
     <t>FunctionMenu_AREndlessChallenge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionIndexWhenARPVE;13</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +815,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1037,20 +1037,20 @@
         <v>Text_Key_Desc_FunctionMenu_AREndlessChallenge</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>20</v>
@@ -1254,14 +1254,14 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
         <v>67</v>
       </c>
       <c r="M12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" t="s">

--- a/Unity/Assets/Config/Excel/AbilityConfig/FunctionMenuConfig/FunctionMenuCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/FunctionMenuConfig/FunctionMenuCfg.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\FunctionMenuConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2A2382-C0F5-423D-AFAE-BBE778EAA615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47475306-BE75-4430-843F-B2F3F5552612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -30,8 +33,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>i</t>
@@ -41,8 +43,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -57,8 +58,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -68,17 +68,31 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>esc</t>
     </r>
   </si>
   <si>
+    <t>is_open_soon</t>
+  </si>
+  <si>
+    <t>openCondition</t>
+  </si>
+  <si>
     <t>icon</t>
   </si>
   <si>
+    <t>UIGuideConfigFileName</t>
+  </si>
+  <si>
+    <t>isGuideWhenBattleEnd</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -88,7 +102,16 @@
     <t>text</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>FunctionMenuCondition</t>
+  </si>
+  <si>
     <t>string#ref=ResIconCfgCategory?</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>##group</t>
@@ -102,8 +125,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>这是i</t>
@@ -113,8 +135,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -127,237 +148,167 @@
     <t>描述</t>
   </si>
   <si>
+    <t>是否即将开启</t>
+  </si>
+  <si>
+    <t>解锁条件</t>
+  </si>
+  <si>
     <t>icon资源路径</t>
   </si>
   <si>
+    <t>指引文件名称</t>
+  </si>
+  <si>
+    <t>是否在战斗结束时强制退出房间并指引会首页</t>
+  </si>
+  <si>
+    <t>优先级(越小越低)</t>
+  </si>
+  <si>
     <t>FunctionMenu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuideConfigFileName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>指引文件名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ARPVE</t>
   </si>
   <si>
+    <t>挑战模式</t>
+  </si>
+  <si>
+    <t>多人教学</t>
+  </si>
+  <si>
+    <t>FunctionMenuConditionDefault</t>
+  </si>
+  <si>
+    <t>FunctionMenu_Invite</t>
+  </si>
+  <si>
     <t>AREndlessChallenge</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式</t>
+  </si>
+  <si>
+    <t>无限模式</t>
+  </si>
+  <si>
+    <t>FunctionMenu_AREndlessChallenge</t>
   </si>
   <si>
     <t>ARPVP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战模式</t>
+  </si>
+  <si>
+    <t>FunctionMenu_ARPVP</t>
   </si>
   <si>
     <t>PersonInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无尽模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对战模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>个人信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenu_PersonInfo</t>
+  </si>
+  <si>
+    <t>BackPack</t>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenu_BackPack</t>
+  </si>
+  <si>
+    <t>BattleDeck</t>
+  </si>
+  <si>
+    <t>出战阵营</t>
+  </si>
+  <si>
+    <t>FunctionMenu_BattleDeck</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
   <si>
     <t>排行榜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季+养成</t>
+  </si>
+  <si>
+    <t>FunctionMenu_Season</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
   </si>
   <si>
     <t>教程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenu_Tutorial</t>
+  </si>
+  <si>
+    <t>Discord</t>
   </si>
   <si>
     <t>discord入口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleDeckOperate</t>
   </si>
   <si>
     <t>上阵引导</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenu_BattleDeckOperate</t>
+  </si>
+  <si>
+    <t>DiscordOperate</t>
   </si>
   <si>
     <t>discord操作引导</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackPack</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discord</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleDeck</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>openCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenuCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenuConditionDefault</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出战阵营</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiscordOperate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleDeckOperate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenu_ARPVP</t>
-  </si>
-  <si>
-    <t>FunctionMenu_PersonInfo</t>
-  </si>
-  <si>
-    <t>FunctionMenu_BackPack</t>
-  </si>
-  <si>
-    <t>FunctionMenu_BattleDeck</t>
-  </si>
-  <si>
-    <t>FunctionMenu_Tutorial</t>
-  </si>
-  <si>
-    <t>FunctionMenu_Discord</t>
-  </si>
-  <si>
-    <t>FunctionMenu_BattleDeckOperate</t>
-  </si>
-  <si>
-    <t>is_open_soon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否即将开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResIcon_PVP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FunctionMenuConditionTutorialFirstFinished</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGuideWhenBattleEnd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否在战斗结束时强制退出房间并指引会首页</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenu_Invite</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多人教学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级(越小越低)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂用于load引导</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛季+养成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FunctionMenu_Load</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenu_Season</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenuConditionIndexWhenARPVE;3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenuConditionTutorialFirstFinished</t>
-  </si>
-  <si>
-    <t>FunctionMenu_AREndlessChallenge</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionMenuConditionIndexWhenARPVE;13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重扫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FunctionMenuConditionIndexWhenARPVE;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,26 +318,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,21 +367,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -497,40 +451,39 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,7 +493,18 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -551,6 +515,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="塔&amp;技能"/>
+      <sheetName val="怪物"/>
+      <sheetName val="难度设计"/>
+      <sheetName val="挑战模式"/>
+      <sheetName val="无限模式"/>
+      <sheetName val="引导"/>
+      <sheetName val="养成"/>
+      <sheetName val="商业化"/>
+      <sheetName val="音乐音效"/>
+      <sheetName val="参考"/>
+      <sheetName val="工具"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="7">
+          <cell r="C7">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -815,239 +821,240 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="7.375" customWidth="1"/>
     <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="7" max="7" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.125" customWidth="1"/>
     <col min="10" max="10" width="50" customWidth="1"/>
     <col min="11" max="11" width="24.625" customWidth="1"/>
-    <col min="12" max="13" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>63</v>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>15</v>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
         <v>FunctionMenu_ARPVE</v>
       </c>
-      <c r="E6" s="3" t="str">
+      <c r="E6" s="7" t="str">
         <f>"Text_Key_Name_"&amp;D6</f>
         <v>Text_Key_Name_FunctionMenu_ARPVE</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="str">
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="str">
         <f>"Text_Key_Desc_"&amp;D6</f>
         <v>Text_Key_Desc_FunctionMenu_ARPVE</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>60</v>
+      <c r="H6" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>59</v>
+      <c r="J6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
         <v>FunctionMenu_AREndlessChallenge</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="E7" s="7" t="str">
         <f t="shared" ref="E7:E16" si="0">"Text_Key_Name_"&amp;D7</f>
         <v>Text_Key_Name_FunctionMenu_AREndlessChallenge</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3" t="str">
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="str">
         <f t="shared" ref="G7:G16" si="1">"Text_Key_Desc_"&amp;D7</f>
         <v>Text_Key_Desc_FunctionMenu_AREndlessChallenge</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>69</v>
+      <c r="H7" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
-        <v>71</v>
+      <c r="J7" s="7" t="str">
+        <f>"FunctionMenuConditionIndexWhenARPVE;"&amp;[1]引导!$C$7</f>
+        <v>FunctionMenuConditionIndexWhenARPVE;3</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -1057,41 +1064,39 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ref="D8:D16" si="2">B8&amp;"_"&amp;C8</f>
         <v>FunctionMenu_ARPVP</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="E8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Text_Key_Name_FunctionMenu_ARPVP</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3" t="str">
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Desc_FunctionMenu_ARPVP</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>25</v>
+      <c r="H8" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7"/>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -1101,39 +1106,39 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
         <v>FunctionMenu_PersonInfo</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Text_Key_Name_FunctionMenu_PersonInfo</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="str">
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Desc_FunctionMenu_PersonInfo</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
+      <c r="H9" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="3"/>
+      <c r="J9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="7"/>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -1143,39 +1148,39 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
         <v>FunctionMenu_BackPack</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Text_Key_Name_FunctionMenu_BackPack</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3" t="str">
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Desc_FunctionMenu_BackPack</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>27</v>
+      <c r="H10" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="3"/>
+      <c r="J10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1185,38 +1190,38 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
         <v>FunctionMenu_BattleDeck</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Text_Key_Name_FunctionMenu_BattleDeck</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3" t="str">
+      <c r="F11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Desc_FunctionMenu_BattleDeck</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
+      <c r="H11" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>41</v>
+      <c r="J11" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1226,81 +1231,81 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
         <v>FunctionMenu_Rank</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Text_Key_Name_FunctionMenu_Rank</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3" t="str">
+      <c r="F12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Desc_FunctionMenu_Rank</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>65</v>
+      <c r="H12" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
-        <v>67</v>
+      <c r="J12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="M12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
         <v>FunctionMenu_Tutorial</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Text_Key_Name_FunctionMenu_Tutorial</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="3" t="str">
+      <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Desc_FunctionMenu_Tutorial</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>29</v>
+      <c r="H13" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="3"/>
+      <c r="J13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7"/>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1310,81 +1315,80 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
         <v>FunctionMenu_Discord</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Text_Key_Name_FunctionMenu_Discord</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="3" t="str">
+      <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Desc_FunctionMenu_Discord</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>30</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
         <v>FunctionMenu_BattleDeckOperate</v>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Text_Key_Name_FunctionMenu_BattleDeckOperate</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="3" t="str">
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Desc_FunctionMenu_BattleDeckOperate</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
+      <c r="H15" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="3"/>
+      <c r="J15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1394,148 +1398,150 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>43</v>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
         <v>FunctionMenu_DiscordOperate</v>
       </c>
-      <c r="E16" s="3" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Text_Key_Name_FunctionMenu_DiscordOperate</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3" t="str">
+      <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Desc_FunctionMenu_DiscordOperate</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
-        <v>66</v>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K18" s="3"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D32" s="3"/>
-      <c r="G32" s="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="D33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="D34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="D35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="D36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="D37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="D38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="D39" s="7"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="D40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="D41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="D42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="D43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="D44" s="7"/>
+      <c r="G44" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D7:F24">
@@ -1550,7 +1556,10 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
